--- a/dist/document/dest/2020/10/doctors/ttla.xlsx
+++ b/dist/document/dest/2020/10/doctors/ttla.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>40</v>
       </c>
-      <c r="C2" s="1">
-        <v>99600</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>10</v>
       </c>
-      <c r="C3" s="1">
-        <v>34500</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>10</v>
       </c>
-      <c r="C4" s="1">
-        <v>83500</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>10</v>
       </c>
-      <c r="C5" s="1">
-        <v>32750</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>30</v>
       </c>
-      <c r="C6" s="1">
-        <v>420750</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>10</v>
       </c>
-      <c r="C7" s="1">
-        <v>68200</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>25</v>
       </c>
-      <c r="C8" s="1">
-        <v>86250</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>20</v>
       </c>
-      <c r="C9" s="1">
-        <v>62000</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>10</v>
       </c>
-      <c r="C10" s="1">
-        <v>76500</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>30</v>
       </c>
-      <c r="C11" s="1">
-        <v>313500</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -514,9 +484,6 @@
       <c r="B12" s="1">
         <v>4</v>
       </c>
-      <c r="C12" s="1">
-        <v>34760</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -525,9 +492,6 @@
       <c r="B13" s="1">
         <v>14</v>
       </c>
-      <c r="C13" s="1">
-        <v>140000</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -536,9 +500,6 @@
       <c r="B14" s="1">
         <v>41</v>
       </c>
-      <c r="C14" s="1">
-        <v>188600</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -547,9 +508,6 @@
       <c r="B15" s="1">
         <v>15</v>
       </c>
-      <c r="C15" s="1">
-        <v>15000</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -558,9 +516,6 @@
       <c r="B16" s="1">
         <v>10</v>
       </c>
-      <c r="C16" s="1">
-        <v>88000</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -569,9 +524,6 @@
       <c r="B17" s="1">
         <v>30</v>
       </c>
-      <c r="C17" s="1">
-        <v>326700</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -580,9 +532,6 @@
       <c r="B18" s="1">
         <v>14</v>
       </c>
-      <c r="C18" s="1">
-        <v>9660</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -592,7 +541,7 @@
         <v>323</v>
       </c>
       <c r="C19" s="1">
-        <v>2080270</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/ttla.xlsx
+++ b/dist/document/dest/2020/10/doctors/ttla.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -399,154 +399,106 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Alpha Choay (VN)</v>
+        <v>Augmentin 1g (Amoxicillin+ kali clavulanate)</v>
       </c>
       <c r="B2" s="1">
-        <v>40</v>
+        <v>10</v>
+      </c>
+      <c r="C2" s="1">
+        <v>228700</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Alphadeka DK (Alpha chymotrypsin 8.4mg)</v>
+        <v>Be-Stedy 16 (Betahistine 16mg)</v>
       </c>
       <c r="B3" s="1">
         <v>10</v>
       </c>
+      <c r="C3" s="1">
+        <v>32750</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Amlor 5mg Pfizer (Amlodipine)</v>
+        <v>Cododamed (Pregabalina 75mg)</v>
       </c>
       <c r="B4" s="1">
         <v>10</v>
       </c>
+      <c r="C4" s="1">
+        <v>172700</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Be-Stedy 16 (Betahistine 16mg)</v>
+        <v>Efferalgan Sủi 500mg</v>
       </c>
       <c r="B5" s="1">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="C5" s="1">
+        <v>46500</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Cadigrel (Clopidogrel 75mg)</v>
+        <v>Esocon  20mg (Esomeprazole)</v>
       </c>
       <c r="B6" s="1">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
+        <v>104500</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Cilavef (Celecoxib 200mg)</v>
+        <v>Mobic (Meloxicam) ( v) 7.5mg</v>
       </c>
       <c r="B7" s="1">
         <v>10</v>
       </c>
+      <c r="C7" s="1">
+        <v>100000</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Corbis (Bisoprolol 5mg)</v>
+        <v>Panadol (Paracetamol)</v>
       </c>
       <c r="B8" s="1">
-        <v>25</v>
+        <v>15</v>
+      </c>
+      <c r="C8" s="1">
+        <v>15000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Efferalgan Sủi 500mg</v>
+        <v>Taginyl VN (Acetyl-DL-Leucine 500mg)</v>
       </c>
       <c r="B9" s="1">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="C9" s="1">
+        <v>10350</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Enterogermina 5ml</v>
+        <v>Tổng cộng</v>
       </c>
       <c r="B10" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>Esocon  20mg (Esomeprazole)</v>
-      </c>
-      <c r="B11" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>Grafort (Dioctahedral smectite 3g)</v>
-      </c>
-      <c r="B12" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>Mobic (Meloxicam) ( v) 7.5mg</v>
-      </c>
-      <c r="B13" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>Normodipine (Amlodipine 5mg)</v>
-      </c>
-      <c r="B14" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>Panadol (Paracetamol)</v>
-      </c>
-      <c r="B15" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>Rosutrox (Rosuvastatin 10mg)</v>
-      </c>
-      <c r="B16" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>Surotadina (Rosuvastatin 10mg)</v>
-      </c>
-      <c r="B17" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>Taginyl VN (Acetyl-DL-Leucine 500mg)</v>
-      </c>
-      <c r="B18" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>Tổng cộng</v>
-      </c>
-      <c r="B19" s="1">
-        <v>323</v>
-      </c>
-      <c r="C19" s="1">
-        <v>NaN</v>
+        <v>95</v>
+      </c>
+      <c r="C10" s="1">
+        <v>710500</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C19"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C10"/>
   </ignoredErrors>
 </worksheet>
 </file>